--- a/ourDocuments/dataCollection.xlsx
+++ b/ourDocuments/dataCollection.xlsx
@@ -15,10 +15,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+  <si>
+    <t>No Forwarding</t>
+  </si>
+  <si>
+    <t>RAW Stalls</t>
+  </si>
+  <si>
+    <t>Structural Stalls</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>ALU Forwarding</t>
+  </si>
+  <si>
+    <t>Memory Forwarding</t>
+  </si>
+  <si>
+    <t>ALU and Memory Forwarding</t>
+  </si>
+  <si>
+    <t>dataHazardTestBench1</t>
+  </si>
+  <si>
+    <t>dataHazardTestBench2</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -34,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +88,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,13 +413,398 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.7270000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.5449999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.7270000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.5449999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.7689999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.6919999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1.4610000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ourDocuments/dataCollection.xlsx
+++ b/ourDocuments/dataCollection.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="dataHazardTestBench1" sheetId="4" r:id="rId1"/>
+    <sheet name="dataHazardTestBench2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -124,6 +126,749 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Data Hazard Test Bench 1,</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> ALU Data Dependency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAW Stalls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ALU Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALU and Memory Forwarding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ALU Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALU and Memory Forwarding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5449999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="84993536"/>
+        <c:axId val="41003264"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="84993536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Enabled forwarding paths</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="41003264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41003264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of RAW Stalls</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84993536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Data Hazard Test Bench 2, Load</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>, Store Data Dependency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAW Stalls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ALU Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALU and Memory Forwarding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ALU Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALU and Memory Forwarding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$7:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4610000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="79682048"/>
+        <c:axId val="84141184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="79682048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Enabled forwarding paths</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84141184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84141184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Number of RAW Stalls</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="79682048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668956" cy="6293734"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84218</cdr:x>
+      <cdr:y>0.32426</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.87021</cdr:x>
+      <cdr:y>0.67351</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="6323256" y="3018326"/>
+          <a:ext cx="2198077" cy="243009"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200"/>
+            <a:t>Clock Cycles per Instruction</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668956" cy="6293734"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83958</cdr:x>
+      <cdr:y>0.37824</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.86142</cdr:x>
+      <cdr:y>0.68577</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="5400000">
+          <a:off x="6405196" y="3253644"/>
+          <a:ext cx="1935530" cy="189280"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Clock</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> Cycles per Instruction</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ourDocuments/dataCollection.xlsx
+++ b/ourDocuments/dataCollection.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dataHazardTestBench1" sheetId="4" r:id="rId1"/>
@@ -135,10 +135,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -153,13 +153,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Data Hazard Test Bench 1,</a:t>
+              <a:t>Data Hazard Test Bench 1, ALU Data Dependency</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> ALU Data Dependency</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -245,16 +240,6 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$5</c:f>
@@ -298,8 +283,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -323,17 +309,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Enabled forwarding paths</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -390,31 +371,11 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
@@ -426,10 +387,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -444,15 +405,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Data Hazard Test Bench 2, Load</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>, Store Data Dependency</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
+              <a:t>Data Hazard Test Bench 2, Load, Store Data Dependency </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -608,10 +561,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Enabled forwarding paths</a:t>
                 </a:r>
               </a:p>
@@ -623,16 +576,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="84141184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -656,10 +599,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:rPr lang="en-US"/>
                   <a:t>Number of RAW Stalls</a:t>
                 </a:r>
               </a:p>
@@ -672,16 +615,6 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1100"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="79682048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -691,16 +624,6 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -725,7 +648,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1160,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/ourDocuments/dataCollection.xlsx
+++ b/ourDocuments/dataCollection.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t>No Forwarding</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>isort</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -292,11 +294,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84993536"/>
-        <c:axId val="41003264"/>
+        <c:axId val="49515520"/>
+        <c:axId val="43146560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84993536"/>
+        <c:axId val="49515520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -318,13 +320,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41003264"/>
+        <c:crossAx val="43146560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -332,7 +333,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41003264"/>
+        <c:axId val="43146560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -355,21 +356,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84993536"/>
+        <c:crossAx val="49515520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -410,7 +409,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -544,11 +542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="79682048"/>
-        <c:axId val="84141184"/>
+        <c:axId val="118216704"/>
+        <c:axId val="119883456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79682048"/>
+        <c:axId val="118216704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,13 +568,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84141184"/>
+        <c:crossAx val="119883456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -584,7 +581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84141184"/>
+        <c:axId val="119883456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -608,21 +605,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79682048"/>
+        <c:crossAx val="118216704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1084,7 +1079,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1292,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1318,41 +1315,81 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="B12" s="1">
+        <v>654</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1481</v>
+      </c>
+      <c r="E12" s="1">
+        <v>733</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="1">
+        <v>148</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>975</v>
+      </c>
+      <c r="E13" s="1">
+        <v>733</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="1">
+        <v>580</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1407</v>
+      </c>
+      <c r="E14" s="1">
+        <v>733</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.919</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="B15" s="1">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>901</v>
+      </c>
+      <c r="E15" s="1">
+        <v>733</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1.2290000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>

--- a/ourDocuments/dataCollection.xlsx
+++ b/ourDocuments/dataCollection.xlsx
@@ -9,9 +9,10 @@
   <sheets>
     <sheet name="dataHazardTestBench1" sheetId="4" r:id="rId1"/>
     <sheet name="dataHazardTestBench2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="isort" sheetId="9" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -409,6 +410,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -568,6 +570,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -605,6 +608,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -618,6 +622,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -625,6 +630,227 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Data Hazard Test Bench 3, ISORT Mixed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Instruction Set</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RAW Stalls</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ALU Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALU and Memory Forwarding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$12:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>No Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ALU Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memory Forwarding</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ALU and Memory Forwarding</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$12:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2290000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="46009856"/>
+        <c:axId val="47893312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46009856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47893312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47893312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46009856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
 </c:chartSpace>
 </file>
 
@@ -644,6 +870,17 @@
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -721,7 +958,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668956" cy="6293734"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -787,6 +1024,33 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8668956" cy="6293734"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1078,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" activeCellId="1" sqref="A11:B15 F11:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
